--- a/indicadores/tablas/330112.xlsx
+++ b/indicadores/tablas/330112.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -467,7 +467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/330112.xlsx
+++ b/indicadores/tablas/330112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
+  </si>
+  <si>
     <t xml:space="preserve">CÁLCULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOIND</t>
@@ -405,7 +411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -467,7 +473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -505,28 +511,32 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6"/>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/330112.xlsx
+++ b/indicadores/tablas/330112.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.14</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.13</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="5">
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
